--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -35,7 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,8 +120,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2505686789151356E-2"/>
-                  <c:y val="-4.9446996208807235E-2"/>
+                  <c:x val="-2.2505686789151359E-2"/>
+                  <c:y val="-4.9446996208807249E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
@@ -127,7 +134,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.628299999999999</c:v>
@@ -151,13 +158,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -188,8 +195,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10479527559055118"/>
-                  <c:y val="0.36409667541557306"/>
+                  <c:x val="0.10479527559055121"/>
+                  <c:y val="0.36409667541557311"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -202,7 +209,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.931799999999999</c:v>
@@ -226,35 +233,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78181888"/>
-        <c:axId val="78180352"/>
+        <c:axId val="81029760"/>
+        <c:axId val="81039744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78181888"/>
+        <c:axId val="81029760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78180352"/>
+        <c:crossAx val="81039744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78180352"/>
+        <c:axId val="81039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,7 +269,395 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78181888"/>
+        <c:crossAx val="81029760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$O$3:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$P$3:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>3.0897735272244029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.178241179472423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2271760594396857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2613008050110763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2875728497898939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3089607910377876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3270115064627444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3426349640827322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3564123721658512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3687378240101964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.379890979641722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3900775385055555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3994532519864626</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4081389114590634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4162301005755502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4238037649966984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4309227704757843</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4376391463557194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.443996444968616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4500314913790731</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4557757033567249</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4612561024093624</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4664960988268962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4715161088015685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4763340449897324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4809657104552172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4854251179801246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4897247511023846</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4938757792011677</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4978882360138366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5017711688050204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5055327637971772</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5091804522592089</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.512721000727645</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5161605881275357</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5195048720128557</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5227590457191909</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5259278878859224</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.529015805539446</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5320268717173184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5349648584434443</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5378332657274827</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5406353471505465</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5433741325086734</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5460524479112112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.548672933670094</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5512380602653146</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5537501426298084</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5562113529617885</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5586237322431593</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5609892006177941</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5633095667625807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="60297216"/>
+        <c:axId val="93944064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60297216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93944064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93944064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60297216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -285,16 +680,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -308,6 +703,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -601,15 +1026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16">
       <c r="B1">
         <v>90</v>
       </c>
@@ -617,20 +1042,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>13.67</v>
+      </c>
+      <c r="O2">
+        <v>9.6</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P4" si="0">$M$3*LN(1+(O2-9.6)^$M$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
         <v>14.628299999999999</v>
@@ -638,10 +1070,23 @@
       <c r="C3">
         <v>20.931799999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.6020000000000003</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>3.0897735272244029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B4">
         <v>23.757000000000001</v>
@@ -649,16 +1094,477 @@
       <c r="C4">
         <v>34.862499999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>10.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3.178241179472423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="B5">
         <v>31.895199999999999</v>
       </c>
       <c r="C5">
         <v>45.883299999999998</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <f>$M$3*LN(1+(O5-9.6)^$M$4)</f>
+        <v>3.2271760594396857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="O6">
+        <v>11.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P4:P54" si="1">$M$3*LN(1+(O6-9.6)^$M$4)</f>
+        <v>3.2613008050110763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>3.2875728497898939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="O8">
+        <v>12.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>3.3089607910377876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>3.3270115064627444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="O10">
+        <v>13.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>3.3426349640827322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3.3564123721658512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="O12">
+        <v>14.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>3.3687378240101964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3.379890979641722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="O14">
+        <v>15.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>3.3900775385055555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="O15">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3.3994532519864626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="O16">
+        <v>16.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>3.4081389114590634</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16">
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>3.4162301005755502</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16">
+      <c r="O18">
+        <v>17.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>3.4238037649966984</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16">
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>3.4309227704757843</v>
+      </c>
+    </row>
+    <row r="20" spans="15:16">
+      <c r="O20">
+        <v>18.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>3.4376391463557194</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16">
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>3.443996444968616</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16">
+      <c r="O22">
+        <v>19.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>3.4500314913790731</v>
+      </c>
+    </row>
+    <row r="23" spans="15:16">
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>3.4557757033567249</v>
+      </c>
+    </row>
+    <row r="24" spans="15:16">
+      <c r="O24">
+        <v>20.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>3.4612561024093624</v>
+      </c>
+    </row>
+    <row r="25" spans="15:16">
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>3.4664960988268962</v>
+      </c>
+    </row>
+    <row r="26" spans="15:16">
+      <c r="O26">
+        <v>21.5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>3.4715161088015685</v>
+      </c>
+    </row>
+    <row r="27" spans="15:16">
+      <c r="O27">
+        <v>22</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>3.4763340449897324</v>
+      </c>
+    </row>
+    <row r="28" spans="15:16">
+      <c r="O28">
+        <v>22.5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>3.4809657104552172</v>
+      </c>
+    </row>
+    <row r="29" spans="15:16">
+      <c r="O29">
+        <v>23</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>3.4854251179801246</v>
+      </c>
+    </row>
+    <row r="30" spans="15:16">
+      <c r="O30">
+        <v>23.5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>3.4897247511023846</v>
+      </c>
+    </row>
+    <row r="31" spans="15:16">
+      <c r="O31">
+        <v>24</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>3.4938757792011677</v>
+      </c>
+    </row>
+    <row r="32" spans="15:16">
+      <c r="O32">
+        <v>24.5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>3.4978882360138366</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16">
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>3.5017711688050204</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16">
+      <c r="O34">
+        <v>25.5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>3.5055327637971772</v>
+      </c>
+    </row>
+    <row r="35" spans="15:16">
+      <c r="O35">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>3.5091804522592089</v>
+      </c>
+    </row>
+    <row r="36" spans="15:16">
+      <c r="O36">
+        <v>26.5</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>3.512721000727645</v>
+      </c>
+    </row>
+    <row r="37" spans="15:16">
+      <c r="O37">
+        <v>27</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>3.5161605881275357</v>
+      </c>
+    </row>
+    <row r="38" spans="15:16">
+      <c r="O38">
+        <v>27.5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>3.5195048720128557</v>
+      </c>
+    </row>
+    <row r="39" spans="15:16">
+      <c r="O39">
+        <v>28</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>3.5227590457191909</v>
+      </c>
+    </row>
+    <row r="40" spans="15:16">
+      <c r="O40">
+        <v>28.5</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>3.5259278878859224</v>
+      </c>
+    </row>
+    <row r="41" spans="15:16">
+      <c r="O41">
+        <v>29</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>3.529015805539446</v>
+      </c>
+    </row>
+    <row r="42" spans="15:16">
+      <c r="O42">
+        <v>29.5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>3.5320268717173184</v>
+      </c>
+    </row>
+    <row r="43" spans="15:16">
+      <c r="O43">
+        <v>30</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>3.5349648584434443</v>
+      </c>
+    </row>
+    <row r="44" spans="15:16">
+      <c r="O44">
+        <v>30.5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>3.5378332657274827</v>
+      </c>
+    </row>
+    <row r="45" spans="15:16">
+      <c r="O45">
+        <v>31</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>3.5406353471505465</v>
+      </c>
+    </row>
+    <row r="46" spans="15:16">
+      <c r="O46">
+        <v>31.5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>3.5433741325086734</v>
+      </c>
+    </row>
+    <row r="47" spans="15:16">
+      <c r="O47">
+        <v>32</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>3.5460524479112112</v>
+      </c>
+    </row>
+    <row r="48" spans="15:16">
+      <c r="O48">
+        <v>32.5</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>3.548672933670094</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16">
+      <c r="O49">
+        <v>33</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>3.5512380602653146</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16">
+      <c r="O50">
+        <v>33.5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>3.5537501426298084</v>
+      </c>
+    </row>
+    <row r="51" spans="15:16">
+      <c r="O51">
+        <v>34</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>3.5562113529617885</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16">
+      <c r="O52">
+        <v>34.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>3.5586237322431593</v>
+      </c>
+    </row>
+    <row r="53" spans="15:16">
+      <c r="O53">
+        <v>35</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>3.5609892006177941</v>
+      </c>
+    </row>
+    <row r="54" spans="15:16">
+      <c r="O54">
+        <v>35.5</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>3.5633095667625807</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -120,8 +120,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2505686789151359E-2"/>
-                  <c:y val="-4.9446996208807249E-2"/>
+                  <c:x val="-2.2505686789151363E-2"/>
+                  <c:y val="-4.944699620880727E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
@@ -140,10 +140,10 @@
                   <c:v>14.628299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.757000000000001</c:v>
+                  <c:v>23.8718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.895199999999999</c:v>
+                  <c:v>32.175199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -195,8 +195,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10479527559055121"/>
-                  <c:y val="0.36409667541557311"/>
+                  <c:x val="0.10479527559055124"/>
+                  <c:y val="0.36409667541557317"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -215,10 +215,10 @@
                   <c:v>20.931799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.862499999999997</c:v>
+                  <c:v>34.987699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.883299999999998</c:v>
+                  <c:v>46.192999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,23 +245,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81029760"/>
-        <c:axId val="81039744"/>
+        <c:axId val="98265728"/>
+        <c:axId val="98275712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81029760"/>
+        <c:axId val="98265728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81039744"/>
+        <c:crossAx val="98275712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81039744"/>
+        <c:axId val="98275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -269,7 +269,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81029760"/>
+        <c:crossAx val="98265728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -282,7 +282,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -631,11 +631,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60297216"/>
-        <c:axId val="93944064"/>
+        <c:axId val="98282880"/>
+        <c:axId val="101516416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60297216"/>
+        <c:axId val="98282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -644,12 +644,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93944064"/>
+        <c:crossAx val="101516416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93944064"/>
+        <c:axId val="101516416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,20 +657,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60297216"/>
+        <c:crossAx val="98282880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1029,7 +1028,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1089,10 +1088,10 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>23.757000000000001</v>
+        <v>23.8718</v>
       </c>
       <c r="C4">
-        <v>34.862499999999997</v>
+        <v>34.987699999999997</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
@@ -1113,10 +1112,10 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>31.895199999999999</v>
+        <v>32.175199999999997</v>
       </c>
       <c r="C5">
-        <v>45.883299999999998</v>
+        <v>46.192999999999998</v>
       </c>
       <c r="O5">
         <v>11</v>
@@ -1131,7 +1130,7 @@
         <v>11.5</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P4:P54" si="1">$M$3*LN(1+(O6-9.6)^$M$4)</f>
+        <f t="shared" ref="P6:P54" si="1">$M$3*LN(1+(O6-9.6)^$M$4)</f>
         <v>3.2613008050110763</v>
       </c>
     </row>
